--- a/tests/robot_framework/files/testdossiers/woo7/inventory.xlsx
+++ b/tests/robot_framework/files/testdossiers/woo7/inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/testdossiers/woo7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5824C80-7893-414B-8C88-9A65B6C2C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858834A-9910-B44E-B284-00B501A8B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>202503</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>202503</v>
@@ -555,7 +555,7 @@
         <v>202506</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>202506</v>
@@ -590,7 +590,7 @@
         <v>202507</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>202506</v>
@@ -622,7 +622,7 @@
         <v>202508</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>202506</v>
@@ -654,7 +654,7 @@
         <v>202509</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>202509</v>
@@ -689,7 +689,7 @@
         <v>202511</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>202511</v>
@@ -724,7 +724,7 @@
         <v>202514</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>202514</v>
@@ -759,7 +759,7 @@
         <v>202516</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>202516</v>
@@ -794,7 +794,7 @@
         <v>202517</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>202517</v>
@@ -829,7 +829,7 @@
         <v>202521</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>202521</v>
